--- a/data/trans_bre/IMC_inf_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_R2-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 8,28</t>
+          <t>-17,75; 19,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 16,62</t>
+          <t>-19,58; 23,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 9,84</t>
+          <t>-23,82; 16,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 19,27</t>
+          <t>-18,76; 25,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 22,94</t>
+          <t>-31,94; 49,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 66,08</t>
+          <t>-33,56; 71,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 30,27</t>
+          <t>-40,74; 39,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 107,03</t>
+          <t>-41,19; 130,46</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-14,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>-24,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,38%</t>
+          <t>-17,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,7%</t>
+          <t>-17,21%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 6,49</t>
+          <t>-8,5; 6,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -5,3</t>
+          <t>-21,81; -6,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -0,43</t>
+          <t>-16,02; -0,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -0,73</t>
+          <t>-17,36; 1,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 17,38</t>
+          <t>-17,45; 15,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,64; -11,14</t>
+          <t>-34,26; -11,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,37; -1,19</t>
+          <t>-30,66; -1,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,75; -1,67</t>
+          <t>-34,03; 2,96</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,01%</t>
+          <t>-22,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,91%</t>
+          <t>-17,67%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 3,22</t>
+          <t>-18,72; 1,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 11,35</t>
+          <t>-6,36; 13,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -2,2</t>
+          <t>-19,46; -1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 4,84</t>
+          <t>-17,41; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 7,03</t>
+          <t>-34,04; 2,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 28,84</t>
+          <t>-11,58; 30,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,85; -5,14</t>
+          <t>-35,81; -3,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 14,96</t>
+          <t>-36,57; 3,05</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,63</t>
+          <t>-24,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,35</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-9,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,84</t>
+          <t>-14,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-58,0%</t>
+          <t>-58,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,48%</t>
+          <t>-28,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,7%</t>
+          <t>-31,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-46,24%</t>
+          <t>-45,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,39; -16,91</t>
+          <t>-31,81; -17,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,35; -1,44</t>
+          <t>-19,78; -2,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -0,98</t>
+          <t>-18,62; -1,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,21; -7,12</t>
+          <t>-23,11; -7,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,87; -45,22</t>
+          <t>-69,7; -45,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,02; -4,35</t>
+          <t>-47,89; -6,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,91; -4,09</t>
+          <t>-51,92; -7,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -26,44</t>
+          <t>-60,83; -25,03</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>-22,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>-16,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-24,78%</t>
+          <t>-26,31%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -4,14</t>
+          <t>-14,69; -5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -0,31</t>
+          <t>-13,04; -3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -3,0</t>
+          <t>-14,47; -4,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -4,04</t>
+          <t>-15,73; -5,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -10,55</t>
+          <t>-30,58; -12,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,43; -0,74</t>
+          <t>-24,52; -6,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,97; -7,83</t>
+          <t>-30,77; -10,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,57; -12,38</t>
+          <t>-37,36; -14,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IMC_inf_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_inf_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 19,5</t>
+          <t>-16,35; 17,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 23,07</t>
+          <t>-16,13; 25,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 16,04</t>
+          <t>-23,56; 17,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 25,17</t>
+          <t>-19,11; 22,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 49,39</t>
+          <t>-29,84; 46,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 71,48</t>
+          <t>-30,47; 78,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 39,28</t>
+          <t>-38,67; 47,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 130,46</t>
+          <t>-45,0; 104,11</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,02</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>-16,94%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,43</t>
+          <t>-8,03; 6,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,81; -6,42</t>
+          <t>-23,15; -7,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -0,62</t>
+          <t>-16,31; -1,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 1,19</t>
+          <t>-16,45; 2,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 15,43</t>
+          <t>-16,37; 15,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,26; -11,15</t>
+          <t>-35,8; -12,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,66; -1,88</t>
+          <t>-31,23; -2,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 2,96</t>
+          <t>-32,59; 4,75</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>-15,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 1,26</t>
+          <t>-18,75; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 13,47</t>
+          <t>-7,93; 12,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,46; -1,77</t>
+          <t>-20,2; -2,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 1,14</t>
+          <t>-17,11; 3,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 2,68</t>
+          <t>-33,3; 3,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 30,39</t>
+          <t>-14,62; 26,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,81; -3,84</t>
+          <t>-36,99; -5,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 3,05</t>
+          <t>-35,84; 7,72</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,96</t>
+          <t>-15,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-45,37%</t>
+          <t>-48,17%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,81; -17,89</t>
+          <t>-31,53; -17,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -2,02</t>
+          <t>-18,83; -1,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -1,99</t>
+          <t>-18,49; -1,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,11; -7,27</t>
+          <t>-25,17; -7,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,7; -45,75</t>
+          <t>-69,63; -44,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,89; -6,1</t>
+          <t>-45,18; -6,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,92; -7,42</t>
+          <t>-51,39; -5,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,83; -25,03</t>
+          <t>-66,65; -24,46</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,34</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-26,31%</t>
+          <t>-27,36%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -5,68</t>
+          <t>-14,42; -5,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -3,07</t>
+          <t>-13,5; -3,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,51</t>
+          <t>-14,65; -5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -5,48</t>
+          <t>-16,87; -5,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,58; -12,99</t>
+          <t>-30,69; -11,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,52; -6,5</t>
+          <t>-25,27; -8,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,77; -10,65</t>
+          <t>-31,02; -12,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,36; -14,88</t>
+          <t>-41,14; -15,25</t>
         </is>
       </c>
     </row>
